--- a/excercises/excercises/60.ESP.xlsx
+++ b/excercises/excercises/60.ESP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E081B8-D8DF-4BD8-83BB-820A2164C1AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEF8288-FC0D-4B8E-B9D6-8E9B8EF077FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35745" yWindow="360" windowWidth="30480" windowHeight="14655" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2700" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Упражнение" sheetId="110" r:id="rId1"/>
@@ -23,33 +23,36 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'База насосов'!$A$3:$O$1267</definedName>
     <definedName name="Bob_" localSheetId="0">Упражнение!$C$13</definedName>
-    <definedName name="Dcas_" localSheetId="0">Упражнение!$C$20</definedName>
-    <definedName name="Dintake_" localSheetId="0">Упражнение!$C$23</definedName>
-    <definedName name="Dtub_" localSheetId="0">Упражнение!$C$22</definedName>
-    <definedName name="Dtub_out_" localSheetId="0">Упражнение!$C$21</definedName>
+    <definedName name="Dcas_" localSheetId="0">Упражнение!$C$21</definedName>
+    <definedName name="Dintake_" localSheetId="0">Упражнение!$C$24</definedName>
+    <definedName name="Dtub_" localSheetId="0">Упражнение!$C$23</definedName>
+    <definedName name="Dtub_out_" localSheetId="0">Упражнение!$C$22</definedName>
     <definedName name="Dштуц__мм">Фонтан!$B$34</definedName>
-    <definedName name="ESPstr">Упражнение!$G$39</definedName>
-    <definedName name="Freq_" localSheetId="0">Упражнение!$C$34</definedName>
+    <definedName name="ESPstr">Упражнение!$G$40</definedName>
+    <definedName name="Freq_" localSheetId="0">Упражнение!$C$35</definedName>
     <definedName name="gamma_gas_" localSheetId="0">Упражнение!$C$8</definedName>
     <definedName name="gamma_oil_" localSheetId="0">Упражнение!$C$7</definedName>
-    <definedName name="Head_ESP_" localSheetId="0">Упражнение!$C$33</definedName>
-    <definedName name="Hmes_" localSheetId="0">Упражнение!$C$17</definedName>
-    <definedName name="Hpump_" localSheetId="0">Упражнение!$C$19</definedName>
-    <definedName name="KsepGasSep_" localSheetId="0">Упражнение!$C$39</definedName>
-    <definedName name="mu">Упражнение!$D$48</definedName>
-    <definedName name="N_" localSheetId="0">Упражнение!$C$47</definedName>
-    <definedName name="NumStage_" localSheetId="0">Упражнение!$C$38</definedName>
+    <definedName name="gamma_wat_" localSheetId="0">Упражнение!$C$8</definedName>
+    <definedName name="Head_ESP_" localSheetId="0">Упражнение!$C$34</definedName>
+    <definedName name="Hmes_" localSheetId="0">Упражнение!$C$18</definedName>
+    <definedName name="Hpump_" localSheetId="0">Упражнение!$C$20</definedName>
+    <definedName name="KsepGasSep_" localSheetId="0">Упражнение!$C$40</definedName>
+    <definedName name="mu">Упражнение!$D$49</definedName>
+    <definedName name="muob_" localSheetId="0">Упражнение!$C$15</definedName>
+    <definedName name="N_" localSheetId="0">Упражнение!$C$48</definedName>
+    <definedName name="NumStage_" localSheetId="0">Упражнение!$C$39</definedName>
     <definedName name="Pb_" localSheetId="0">Упражнение!$C$11</definedName>
-    <definedName name="Pbuf_" localSheetId="0">Упражнение!$C$24</definedName>
-    <definedName name="Pdis">Упражнение!$L$49</definedName>
-    <definedName name="Pdis_" localSheetId="0">Упражнение!$C$29</definedName>
-    <definedName name="PI_" localSheetId="0">Упражнение!$C$45</definedName>
-    <definedName name="Pintake_" localSheetId="0">Упражнение!$C$25</definedName>
-    <definedName name="PKsep">Упражнение!$C$40</definedName>
-    <definedName name="Pres_" localSheetId="0">Упражнение!$C$44</definedName>
-    <definedName name="PumpID_" localSheetId="0">Упражнение!$C$35</definedName>
-    <definedName name="PVTstr">Упражнение!$G$36</definedName>
-    <definedName name="Pwf_" localSheetId="0">Упражнение!$C$27</definedName>
+    <definedName name="Pbuf_" localSheetId="0">Упражнение!$C$25</definedName>
+    <definedName name="Pdis">Упражнение!$L$50</definedName>
+    <definedName name="Pdis_" localSheetId="0">Упражнение!$C$30</definedName>
+    <definedName name="PI_" localSheetId="0">Упражнение!$C$46</definedName>
+    <definedName name="Pintake_" localSheetId="0">Упражнение!$C$26</definedName>
+    <definedName name="PKsep">Упражнение!$C$41</definedName>
+    <definedName name="Pres_" localSheetId="0">Упражнение!$C$45</definedName>
+    <definedName name="PumpID_" localSheetId="0">Упражнение!$C$36</definedName>
+    <definedName name="PVT_str_">Упражнение!#REF!</definedName>
+    <definedName name="PVTstr">Упражнение!$G$37</definedName>
+    <definedName name="Pwf_" localSheetId="0">Упражнение!$C$28</definedName>
     <definedName name="Pбуф__атм">Фонтан!$B$14</definedName>
     <definedName name="Pбуф_расч__атм">Фонтан!$E$14</definedName>
     <definedName name="Pзаб__атм">Фонтан!$B$15</definedName>
@@ -60,9 +63,9 @@
     <definedName name="Pлин_расч__атм">Фонтан!$E$13</definedName>
     <definedName name="Pнас__атм">Фонтан!$B$29</definedName>
     <definedName name="Pпласт__атм">Фонтан!$B$19</definedName>
-    <definedName name="Q_" localSheetId="0">Упражнение!$C$28</definedName>
-    <definedName name="Q_ESP_" localSheetId="0">Упражнение!$C$32</definedName>
-    <definedName name="Qmax" localSheetId="0">Упражнение!$C$37</definedName>
+    <definedName name="Q_" localSheetId="0">Упражнение!$C$29</definedName>
+    <definedName name="Q_ESP_" localSheetId="0">Упражнение!$C$33</definedName>
+    <definedName name="Qmax" localSheetId="0">Упражнение!$C$38</definedName>
     <definedName name="Qж__м3_сут">Фонтан!$B$9</definedName>
     <definedName name="Qж_расч__м3_сут">Фонтан!$E$9</definedName>
     <definedName name="Qн__т_сут">Фонтан!$B$10</definedName>
@@ -73,11 +76,11 @@
     <definedName name="testRange">Фонтан!$H$45:$H$61,Фонтан!$J$45:$J$61</definedName>
     <definedName name="testRange1">Фонтан!$L$45:$M$62</definedName>
     <definedName name="testRange2">Фонтан!$N$45:$O$66</definedName>
-    <definedName name="Tgrad" localSheetId="0">Упражнение!$C$46</definedName>
-    <definedName name="Tintake_" localSheetId="0">Упражнение!$C$26</definedName>
-    <definedName name="TKsep">Упражнение!$C$41</definedName>
+    <definedName name="Tgrad" localSheetId="0">Упражнение!$C$47</definedName>
+    <definedName name="Tintake_" localSheetId="0">Упражнение!$C$27</definedName>
+    <definedName name="TKsep">Упражнение!$C$42</definedName>
     <definedName name="Tres_" localSheetId="0">Упражнение!$C$12</definedName>
-    <definedName name="Udl_" localSheetId="0">Упражнение!$C$18</definedName>
+    <definedName name="Udl_" localSheetId="0">Упражнение!$C$19</definedName>
     <definedName name="wc_" localSheetId="0">Упражнение!$C$14</definedName>
     <definedName name="Геоградиент">Фонтан!$I$45:$J$61</definedName>
     <definedName name="ГФ__м3_м3">Фонтан!$B$27</definedName>
@@ -107,7 +110,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -151,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="363">
   <si>
     <t>Конструкция</t>
   </si>
@@ -1018,22 +1020,10 @@
     <t>ЭЦН5А-700Э (из ЭЦН5А-500Э)</t>
   </si>
   <si>
-    <t>кг/м3</t>
-  </si>
-  <si>
-    <t>м3/м3</t>
-  </si>
-  <si>
-    <t>м3/т</t>
-  </si>
-  <si>
     <t>атм</t>
   </si>
   <si>
     <t>С</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>м</t>
@@ -1069,31 +1059,7 @@
     <t>,</t>
   </si>
   <si>
-    <t>Упражнения по курсу "Механизированная добыча нефти"</t>
-  </si>
-  <si>
     <t>Физико - химические свойства флюида</t>
-  </si>
-  <si>
-    <t>Удельная плотность нефти</t>
-  </si>
-  <si>
-    <t>Удельная плотность газа</t>
-  </si>
-  <si>
-    <t>Газосодержание при давлении насыщения</t>
-  </si>
-  <si>
-    <t>Газовый фактор</t>
-  </si>
-  <si>
-    <t>Давление насыщения (при пластовой температуре)</t>
-  </si>
-  <si>
-    <t>Пластовая температура</t>
-  </si>
-  <si>
-    <t>Объемный коээфициент нефти (при пластовом давлении и температуре)</t>
   </si>
   <si>
     <t>Данные по скважине</t>
@@ -1221,6 +1187,255 @@
   <si>
     <t>ЭЦН строка</t>
   </si>
+  <si>
+    <t>Упражнения по работе с макросами Unifloc VBA</t>
+  </si>
+  <si>
+    <t>версия</t>
+  </si>
+  <si>
+    <t>Анализ работы ЭЦН</t>
+  </si>
+  <si>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>o</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>кг/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/т</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b cal</t>
+    </r>
+  </si>
+  <si>
+    <t>атмa</t>
+  </si>
+  <si>
+    <t>МПа</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>res</t>
+    </r>
+  </si>
+  <si>
+    <t>Ф</t>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ob cal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ob cal</t>
+    </r>
+  </si>
+  <si>
+    <t>сП</t>
+  </si>
 </sst>
 </file>
 
@@ -1232,7 +1447,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -1333,13 +1548,48 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Arial Cyr"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1391,6 +1641,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1863,7 +2131,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2007,21 +2275,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2029,20 +2284,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2055,73 +2298,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2130,16 +2316,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2180,6 +2361,108 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2268,8 +2551,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2368,7 +2651,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Упражнение!$D$51</c:f>
+              <c:f>Упражнение!$D$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2403,7 +2686,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Упражнение!$C$52:$C$72</c:f>
+              <c:f>Упражнение!$C$53:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2411,136 +2694,136 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.25</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.75</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.25</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.75</c:v>
+                  <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.5</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.25</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.75</c:v>
+                  <c:v>149.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.5</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.25</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.75</c:v>
+                  <c:v>195.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.5</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.25</c:v>
+                  <c:v>218.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Упражнение!$D$52:$D$72</c:f>
+              <c:f>Упражнение!$D$53:$D$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2202.8561602786194</c:v>
+                  <c:v>2177.7038598350264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2200.678864742461</c:v>
+                  <c:v>2155.0796090898484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2213.5900319484658</c:v>
+                  <c:v>2153.4436231720601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2230.3003299294264</c:v>
+                  <c:v>2164.5150132826443</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2240.6593631125197</c:v>
+                  <c:v>2178.2139599650986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2237.154256103488</c:v>
+                  <c:v>2186.1582001833112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2214.6101320880121</c:v>
+                  <c:v>2181.5694293950837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2169.8905912330774</c:v>
+                  <c:v>2159.1797036256626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2101.5981890883459</c:v>
+                  <c:v>2115.1378415412596</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2009.7749149875228</c:v>
+                  <c:v>2046.9158265225844</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1895.6026704497281</c:v>
+                  <c:v>1953.2152087383711</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1761.1037475808644</c:v>
+                  <c:v>1833.8735072188988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1608.841307474986</c:v>
+                  <c:v>1689.7706119295246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1441.61985861567</c:v>
+                  <c:v>1522.7351858442096</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1262.1857352773841</c:v>
+                  <c:v>1335.4510670190416</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1072.9275759268546</c:v>
+                  <c:v>1131.3636706657694</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>875.57680162443944</c:v>
+                  <c:v>914.58639122531849</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>670.90809442548937</c:v>
+                  <c:v>689.80700444132776</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>458.43987578173306</c:v>
+                  <c:v>462.19406943367369</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>236.13478494262984</c:v>
+                  <c:v>237.30333077199134</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.10015735674276982</c:v>
+                  <c:v>20.984120549215934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,7 +2854,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Упражнение!$E$51</c:f>
+              <c:f>Упражнение!$E$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2606,7 +2889,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Упражнение!$C$52:$C$72</c:f>
+              <c:f>Упражнение!$C$53:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2614,136 +2897,136 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.25</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.75</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.25</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.75</c:v>
+                  <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.5</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.25</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.75</c:v>
+                  <c:v>149.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.5</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.25</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.75</c:v>
+                  <c:v>195.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.5</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.25</c:v>
+                  <c:v>218.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Упражнение!$E$52:$E$72</c:f>
+              <c:f>Упражнение!$E$53:$E$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>5.303653716400898E-3</c:v>
+                  <c:v>1.02094510249169E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5445262217753762E-2</c:v>
+                  <c:v>7.4948597208333356E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12659785209876859</c:v>
+                  <c:v>0.14770494788119301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20521204222564957</c:v>
+                  <c:v>0.22007074560149578</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28450652434065044</c:v>
+                  <c:v>0.28974697934124621</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35910709353717923</c:v>
+                  <c:v>0.35456296862333708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42491196538021475</c:v>
+                  <c:v>0.41250634910674744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47895709302672562</c:v>
+                  <c:v>0.46175305817174056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51928148434608679</c:v>
+                  <c:v>0.5006973205050621</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5447925190404973</c:v>
+                  <c:v>0.52798163368513795</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55513126576539795</c:v>
+                  <c:v>0.54252675376727288</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.55053779924988877</c:v>
+                  <c:v>0.54356168086884704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.53171651741714676</c:v>
+                  <c:v>0.53065364475451593</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.49970145850484476</c:v>
+                  <c:v>0.50373809042140771</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45572161818556323</c:v>
+                  <c:v>0.46314866368431995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40106626668721712</c:v>
+                  <c:v>0.4096471967609201</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33695026591346711</c:v>
+                  <c:v>0.34445369385694047</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26437938656413706</c:v>
+                  <c:v>0.26927631675138031</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18401562525563042</c:v>
+                  <c:v>0.18634137038169934</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.6042521641360512E-2</c:v>
+                  <c:v>9.8423288429019706E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0475532145413098E-5</c:v>
+                  <c:v>8.8746189033200862E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,7 +3569,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Упражнение!$D$51</c:f>
+              <c:f>Упражнение!$D$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3321,7 +3604,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Упражнение!$C$52:$C$72</c:f>
+              <c:f>Упражнение!$C$53:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3329,136 +3612,136 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.25</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.75</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.25</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.75</c:v>
+                  <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.5</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.25</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.75</c:v>
+                  <c:v>149.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.5</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.25</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.75</c:v>
+                  <c:v>195.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.5</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.25</c:v>
+                  <c:v>218.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Упражнение!$D$52:$D$72</c:f>
+              <c:f>Упражнение!$D$53:$D$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2202.8561602786194</c:v>
+                  <c:v>2177.7038598350264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2200.678864742461</c:v>
+                  <c:v>2155.0796090898484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2213.5900319484658</c:v>
+                  <c:v>2153.4436231720601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2230.3003299294264</c:v>
+                  <c:v>2164.5150132826443</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2240.6593631125197</c:v>
+                  <c:v>2178.2139599650986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2237.154256103488</c:v>
+                  <c:v>2186.1582001833112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2214.6101320880121</c:v>
+                  <c:v>2181.5694293950837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2169.8905912330774</c:v>
+                  <c:v>2159.1797036256626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2101.5981890883459</c:v>
+                  <c:v>2115.1378415412596</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2009.7749149875228</c:v>
+                  <c:v>2046.9158265225844</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1895.6026704497281</c:v>
+                  <c:v>1953.2152087383711</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1761.1037475808644</c:v>
+                  <c:v>1833.8735072188988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1608.841307474986</c:v>
+                  <c:v>1689.7706119295246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1441.61985861567</c:v>
+                  <c:v>1522.7351858442096</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1262.1857352773841</c:v>
+                  <c:v>1335.4510670190416</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1072.9275759268546</c:v>
+                  <c:v>1131.3636706657694</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>875.57680162443944</c:v>
+                  <c:v>914.58639122531849</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>670.90809442548937</c:v>
+                  <c:v>689.80700444132776</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>458.43987578173306</c:v>
+                  <c:v>462.19406943367369</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>236.13478494262984</c:v>
+                  <c:v>237.30333077199134</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.10015735674276982</c:v>
+                  <c:v>20.984120549215934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3489,7 +3772,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Упражнение!$F$51</c:f>
+              <c:f>Упражнение!$F$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3524,7 +3807,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Упражнение!$C$52:$C$72</c:f>
+              <c:f>Упражнение!$C$53:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3532,136 +3815,136 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.25</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.75</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.25</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.75</c:v>
+                  <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.5</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.25</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.75</c:v>
+                  <c:v>149.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.5</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.25</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.75</c:v>
+                  <c:v>195.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.5</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.25</c:v>
+                  <c:v>218.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Упражнение!$F$52:$F$72</c:f>
+              <c:f>Упражнение!$F$53:$F$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>29186.480609850001</c:v>
+                  <c:v>34489.160642996467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30005.249336288001</c:v>
+                  <c:v>35543.191344898885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30598.129507851332</c:v>
+                  <c:v>36837.222463369806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30966.595050208427</c:v>
+                  <c:v>38177.816369012093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31218.93906626866</c:v>
+                  <c:v>39502.006083603352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31440.978832840879</c:v>
+                  <c:v>40780.061560281414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31698.295567677225</c:v>
+                  <c:v>42008.326331975681</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32038.474196516945</c:v>
+                  <c:v>43202.054159838532</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32493.343120130234</c:v>
+                  <c:v>44388.245681676708</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33081.213981362023</c:v>
+                  <c:v>45598.485060382707</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33809.121432175823</c:v>
+                  <c:v>46861.776632366156</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34675.062900697507</c:v>
+                  <c:v>48197.381555985216</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35670.238358259157</c:v>
+                  <c:v>49607.654459978017</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36781.290086442867</c:v>
+                  <c:v>51070.880091893952</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37992.542444124549</c:v>
+                  <c:v>52534.109966525131</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39288.241634517763</c:v>
+                  <c:v>53905.999014337751</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40654.795472217564</c:v>
+                  <c:v>55049.642229903497</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42083.013150244267</c:v>
+                  <c:v>55775.411320330881</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43570.345007087242</c:v>
+                  <c:v>55833.791353696841</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45123.122293748886</c:v>
+                  <c:v>54908.217407477758</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46758.79694078811</c:v>
+                  <c:v>52607.911216981076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,7 +4475,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Упражнение!$G$51</c:f>
+              <c:f>Упражнение!$G$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4227,7 +4510,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Упражнение!$C$52:$C$72</c:f>
+              <c:f>Упражнение!$C$53:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4235,121 +4518,121 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.25</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.75</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.25</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.75</c:v>
+                  <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.5</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.25</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.75</c:v>
+                  <c:v>149.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.5</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.25</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.75</c:v>
+                  <c:v>195.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.5</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.25</c:v>
+                  <c:v>218.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Упражнение!$G$52:$G$72</c:f>
+              <c:f>Упражнение!$G$53:$G$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>131.61505032571148</c:v>
+                  <c:v>82.111023665968759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.88191176628351</c:v>
+                  <c:v>90.209598158688067</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133.24738314376867</c:v>
+                  <c:v>91.863172349024111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133.21422879783415</c:v>
+                  <c:v>93.08188781322697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130.06596457919744</c:v>
+                  <c:v>93.759685446962351</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>122.01146946247624</c:v>
+                  <c:v>93.429871597979144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.83998261063005</c:v>
+                  <c:v>91.699925728005709</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.994498082872198</c:v>
+                  <c:v>88.303566765918674</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>83.104077767217404</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>76.087392178376234</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>67.35257923577845</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>57.101562667070539</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>45.628424363784902</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>33.308248326983176</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>20.585508955331555</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>7.9625033417743438</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -4395,7 +4678,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Упражнение!$H$51</c:f>
+              <c:f>Упражнение!$H$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4430,7 +4713,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Упражнение!$C$52:$C$72</c:f>
+              <c:f>Упражнение!$C$53:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4438,121 +4721,121 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.25</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.75</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.25</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.75</c:v>
+                  <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.5</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.25</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.75</c:v>
+                  <c:v>149.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.5</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.25</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.75</c:v>
+                  <c:v>195.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.5</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.25</c:v>
+                  <c:v>218.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Упражнение!$H$52:$H$72</c:f>
+              <c:f>Упражнение!$H$53:$H$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>86.608803564703976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>41.362840724366251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>25.916218778480811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>18.080325823964984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>13.394469090118889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10.402810500656599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8.4973345097707238</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.373405049065255</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.8477745024192416</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.7859313227369142</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>7.0692615711777478</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7.5787477206568354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>8.1861873942541621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>8.7488933667834345</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>9.1054864809524645</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -4965,7 +5248,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Упражнение!$I$51</c:f>
+              <c:f>Упражнение!$I$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5000,7 +5283,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Упражнение!$C$52:$C$72</c:f>
+              <c:f>Упражнение!$C$53:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5008,121 +5291,121 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.25</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.75</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.25</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.75</c:v>
+                  <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.5</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.25</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.75</c:v>
+                  <c:v>149.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.5</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.25</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.75</c:v>
+                  <c:v>195.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.5</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.25</c:v>
+                  <c:v>218.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Упражнение!$G$52:$G$72</c:f>
+              <c:f>Упражнение!$G$53:$G$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>131.61505032571148</c:v>
+                  <c:v>82.111023665968759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.88191176628351</c:v>
+                  <c:v>90.209598158688067</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133.24738314376867</c:v>
+                  <c:v>91.863172349024111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133.21422879783415</c:v>
+                  <c:v>93.08188781322697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130.06596457919744</c:v>
+                  <c:v>93.759685446962351</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>122.01146946247624</c:v>
+                  <c:v>93.429871597979144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.83998261063005</c:v>
+                  <c:v>91.699925728005709</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.994498082872198</c:v>
+                  <c:v>88.303566765918674</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>83.104077767217404</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>76.087392178376234</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>67.35257923577845</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>57.101562667070539</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>45.628424363784902</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>33.308248326983176</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>20.585508955331555</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>7.9625033417743438</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -5154,7 +5437,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Упражнение!$J$51</c:f>
+              <c:f>Упражнение!$J$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5165,7 +5448,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Упражнение!$C$52:$C$72</c:f>
+              <c:f>Упражнение!$C$53:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5173,71 +5456,71 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.25</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.75</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.25</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.75</c:v>
+                  <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.5</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.25</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.75</c:v>
+                  <c:v>149.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.5</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.25</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.75</c:v>
+                  <c:v>195.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.5</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.25</c:v>
+                  <c:v>218.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Упражнение!$N$52:$N$72</c:f>
+              <c:f>Упражнение!$N$53:$N$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5604,7 +5887,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Упражнение!$L$51</c:f>
+              <c:f>Упражнение!$L$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5615,7 +5898,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Упражнение!$C$52:$C$72</c:f>
+              <c:f>Упражнение!$C$53:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5623,127 +5906,127 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.25</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.75</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.25</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.75</c:v>
+                  <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.5</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.25</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.75</c:v>
+                  <c:v>149.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.5</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.25</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148.75</c:v>
+                  <c:v>195.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157.5</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166.25</c:v>
+                  <c:v>218.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Упражнение!$L$52:$L$72</c:f>
+              <c:f>Упражнение!$L$53:$L$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>27.940693409076857</c:v>
+                  <c:v>55.939686574732733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.773535770483363</c:v>
+                  <c:v>56.975068245824033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.38973189037722</c:v>
+                  <c:v>56.727152198573037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.963920444366792</c:v>
+                  <c:v>55.982813601587381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.750166565158878</c:v>
+                  <c:v>55.528814974176356</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.487643370673254</c:v>
+                  <c:v>55.970438286485432</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.881533791485481</c:v>
+                  <c:v>57.744424764905617</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.745443810508149</c:v>
+                  <c:v>61.132335086995425</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.989617458191617</c:v>
+                  <c:v>66.274342403555494</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.60569946165198</c:v>
+                  <c:v>73.183171193251553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53.634379404993808</c:v>
+                  <c:v>81.757835767825057</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59.289711149194432</c:v>
+                  <c:v>91.79702399017583</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66.020150723640072</c:v>
+                  <c:v>103.01218416471166</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.183852273082991</c:v>
+                  <c:v>115.04045250712093</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>89.671964243342629</c:v>
+                  <c:v>127.45753093754938</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105.72735560530418</c:v>
+                  <c:v>139.79057000496422</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>122.56711654635248</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>140.41992646388127</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>150</c:v>
@@ -8987,13 +9270,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>603536</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>139182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>62134</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9025,13 +9308,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247891</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>1202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>324891</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>55632</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9063,13 +9346,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>225287</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>145273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1838</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>12204</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9100,15 +9383,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>621925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>277656</xdr:rowOff>
+      <xdr:colOff>502862</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>39532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>492184</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>140945</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9123,8 +9406,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6392954" y="2014568"/>
-          <a:ext cx="5137024" cy="3684495"/>
+          <a:off x="6265487" y="372907"/>
+          <a:ext cx="8474450" cy="2413156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9188,13 +9471,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>61046</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>34437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>80497</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>57928</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9226,13 +9509,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>200940</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>14869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>217672</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>24291</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9998,13 +10281,14 @@
       <definedName name="ESP_eff_fr"/>
       <definedName name="ESP_Encode_string"/>
       <definedName name="ESP_head_m"/>
-      <definedName name="ESP_IDbyRate"/>
-      <definedName name="esp_maxRate_m3day"/>
+      <definedName name="ESP_id_by_rate"/>
+      <definedName name="esp_max_rate_m3day"/>
       <definedName name="ESP_name"/>
       <definedName name="ESP_Power_W"/>
+      <definedName name="getUFVersion"/>
       <definedName name="IPR_PI_sm3dayatm"/>
-      <definedName name="MF_GasFraction_d"/>
-      <definedName name="PVT_Encode_string"/>
+      <definedName name="MF_gas_fraction_d"/>
+      <definedName name="PVT_encode_string"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -10600,1447 +10884,1540 @@
   <sheetPr codeName="Лист9">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A2:L182"/>
+  <dimension ref="A1:AK183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="4" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" t="str">
+        <f>[1]!getUFVersion()</f>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="50">
+        <v>0.86</v>
+      </c>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99">
+        <f>gamma_oil_*1000</f>
+        <v>860</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="100" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="50">
+        <v>1</v>
+      </c>
+      <c r="D8" s="98"/>
+      <c r="E8" s="99">
+        <f>gamma_wat_*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="100" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99">
+        <f>gamma_gas_*1.22</f>
+        <v>1.22</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="50">
+        <v>80</v>
+      </c>
+      <c r="D10" s="100" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="102">
+        <f>Rsb_/gamma_oil_</f>
+        <v>0.93023255813953498</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="101" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="50">
+        <v>80</v>
+      </c>
+      <c r="D11" s="100" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="102">
+        <f>Rsb_/gamma_oil_</f>
+        <v>0.93023255813953498</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="100" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="50">
+        <v>120</v>
+      </c>
+      <c r="D12" s="98" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" s="102">
+        <f>Pb_*1.01325</f>
+        <v>81.06</v>
+      </c>
+      <c r="F12" s="98" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="100" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" s="50">
+        <v>100</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="102">
+        <f>Tres_*9/5+32</f>
+        <v>248</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="101" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="50">
+        <v>1.2</v>
+      </c>
+      <c r="D14" s="100" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="103" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="50">
+        <v>1</v>
+      </c>
+      <c r="D15" s="98" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+    </row>
+    <row r="18" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="104" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="50">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="C19" s="50">
+        <v>0</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="104" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="C20" s="50">
+        <v>1500</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="104" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
+      <c r="C21" s="50">
+        <v>125</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="104" t="s">
         <v>307</v>
       </c>
-      <c r="C7" s="51">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52">
-        <f>gamma_oil_*1000</f>
-        <v>750</v>
-      </c>
-      <c r="F7" s="53" t="s">
+      <c r="C22" s="50">
+        <v>73</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="104" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="50">
+        <v>62</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="104" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="50">
+        <v>100</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="104" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25" s="50">
+        <v>20</v>
+      </c>
+      <c r="D25" s="105" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="C8" s="51">
+    <row r="26" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="50">
+        <v>34</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="104" t="s">
+        <v>312</v>
+      </c>
+      <c r="C27" s="50">
+        <v>80</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="104" t="s">
+        <v>313</v>
+      </c>
+      <c r="C28" s="50">
+        <v>70</v>
+      </c>
+      <c r="D28" s="105" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="104" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29" s="50">
+        <v>50</v>
+      </c>
+      <c r="D29" s="105" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="104" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="50">
+        <v>150</v>
+      </c>
+      <c r="D30" s="105" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="49" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="105" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" s="50">
+        <v>110</v>
+      </c>
+      <c r="D33" s="105" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="105" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" s="50">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="105" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="50">
+        <v>50</v>
+      </c>
+      <c r="D35" s="105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="105" t="s">
+        <v>319</v>
+      </c>
+      <c r="C36" s="99">
+        <f>[1]!ESP_id_by_rate(Q_ESP_)</f>
+        <v>737</v>
+      </c>
+      <c r="D36" s="105"/>
+      <c r="G36" s="106" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="105" t="s">
+        <v>320</v>
+      </c>
+      <c r="C37" s="99" t="str">
+        <f>[1]!ESP_name(C36)</f>
+        <v>ВНН5-125</v>
+      </c>
+      <c r="D37" s="105"/>
+      <c r="G37" s="96" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,mu,,KsepGasSep_,PKsep,TKsep)</f>
+        <v>gamma_gas:1,000;gamma_oil:0,860;gamma_wat:1,000;rsb_m3m3:0,800;rp_m3m3:80,000;pb_atma:80,000;tres_C:120,000;bob_m3m3:100,000;muob_cP:1,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:80,000;tksep_C:80,000;</v>
+      </c>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="116"/>
+      <c r="R37" s="116"/>
+      <c r="S37" s="116"/>
+      <c r="T37" s="116"/>
+      <c r="U37" s="116"/>
+      <c r="V37" s="116"/>
+      <c r="W37" s="116"/>
+      <c r="X37" s="116"/>
+      <c r="Y37" s="116"/>
+      <c r="Z37" s="116"/>
+    </row>
+    <row r="38" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" s="99">
+        <f>[1]!esp_max_rate_m3day(Freq_,PumpID_)*1</f>
+        <v>230</v>
+      </c>
+      <c r="D38" s="105"/>
+    </row>
+    <row r="39" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="105" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="99">
+        <f>INT(Head_ESP_/[1]!ESP_head_m(Q_ESP_,1,,PumpID_))</f>
+        <v>324</v>
+      </c>
+      <c r="D39" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="G39" s="106" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="105" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" s="53">
         <v>0.9</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="52">
-        <f>gamma_gas_*1.22</f>
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F8" s="53" t="s">
+      <c r="D40" s="105"/>
+      <c r="G40" s="96" t="str">
+        <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
+        <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;Tintake_C:85,00000;Tdis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;GasDegtType:0;Kdegr:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
+      </c>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="116"/>
+      <c r="O40" s="116"/>
+      <c r="P40" s="116"/>
+      <c r="Q40" s="116"/>
+      <c r="R40" s="116"/>
+      <c r="S40" s="116"/>
+      <c r="T40" s="116"/>
+      <c r="U40" s="116"/>
+      <c r="V40" s="116"/>
+      <c r="W40" s="116"/>
+      <c r="X40" s="116"/>
+      <c r="Y40" s="116"/>
+      <c r="Z40" s="116"/>
+      <c r="AA40" s="116"/>
+      <c r="AB40" s="116"/>
+      <c r="AC40" s="116"/>
+      <c r="AD40" s="116"/>
+      <c r="AE40" s="116"/>
+      <c r="AF40" s="116"/>
+      <c r="AG40" s="116"/>
+      <c r="AH40" s="116"/>
+      <c r="AI40" s="116"/>
+      <c r="AJ40" s="116"/>
+      <c r="AK40" s="116"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B41" s="105" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" s="56">
+        <v>80</v>
+      </c>
+      <c r="D41" s="105" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" s="51">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B42" s="105" t="s">
+        <v>337</v>
+      </c>
+      <c r="C42" s="56">
         <v>80</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D42" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="E9" s="55">
-        <f>Rsb_/gamma_oil_</f>
-        <v>106.66666666666667</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="54" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="51">
-        <v>80</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10" s="55">
-        <f>Rsb_/gamma_oil_</f>
-        <v>106.66666666666667</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="C11" s="51">
-        <v>100</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50" t="s">
-        <v>312</v>
-      </c>
-      <c r="C12" s="51">
-        <v>120</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="54" t="s">
-        <v>313</v>
-      </c>
-      <c r="C13" s="51">
-        <v>1.2</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="51">
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A44" s="49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B45" s="105" t="s">
+        <v>324</v>
+      </c>
+      <c r="C45" s="50">
+        <v>250</v>
+      </c>
+      <c r="D45" s="105" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B46" s="105" t="s">
+        <v>325</v>
+      </c>
+      <c r="C46" s="114">
+        <f>[1]!IPR_PI_sm3dayatm(Q_,Pwf_,Pres_,wc_,Pb_)</f>
+        <v>0.27862855763737893</v>
+      </c>
+      <c r="D46" s="105" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B47" s="105" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" s="50">
+        <v>3</v>
+      </c>
+      <c r="D47" s="105" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B48" s="105" t="s">
+        <v>299</v>
+      </c>
+      <c r="C48" s="50">
+        <v>20</v>
+      </c>
+      <c r="D48" s="105"/>
+    </row>
+    <row r="49" spans="1:12" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" t="s">
+        <v>329</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" t="s">
+        <v>327</v>
+      </c>
+      <c r="D50" s="58">
+        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,wc_,PVTstr)</f>
+        <v>7.8033975291030479E-17</v>
+      </c>
+      <c r="J50" s="106" t="s">
+        <v>340</v>
+      </c>
+      <c r="K50" s="106"/>
+      <c r="L50" s="113">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="G51" s="109" t="s">
+        <v>338</v>
+      </c>
+      <c r="H51" s="110"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="112" t="s">
+        <v>339</v>
+      </c>
+      <c r="K51" s="112"/>
+      <c r="L51" s="112"/>
+    </row>
+    <row r="52" spans="1:12" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="107" t="s">
+        <v>330</v>
+      </c>
+      <c r="E52" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="F52" s="108" t="s">
+        <v>332</v>
+      </c>
+      <c r="G52" s="108" t="s">
+        <v>333</v>
+      </c>
+      <c r="H52" s="108" t="s">
+        <v>334</v>
+      </c>
+      <c r="I52" s="108" t="s">
+        <v>340</v>
+      </c>
+      <c r="J52" s="108" t="s">
+        <v>333</v>
+      </c>
+      <c r="K52" s="108" t="s">
+        <v>334</v>
+      </c>
+      <c r="L52" s="108" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="54">
+        <v>1</v>
+      </c>
+      <c r="D53" s="102">
+        <f>[1]!ESP_head_m(C53,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>2177.7038598350264</v>
+      </c>
+      <c r="E53" s="114">
+        <f>[1]!ESP_eff_fr(C53,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>1.02094510249169E-2</v>
+      </c>
+      <c r="F53" s="102">
+        <f>[1]!ESP_Power_W(C53,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>34489.160642996467</v>
+      </c>
+      <c r="G53" s="114">
+        <f t="array" ref="G53:H53">[1]!ESP_dP_atm(C53,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>82.111023665968759</v>
+      </c>
+      <c r="H53" s="114">
+        <v>219</v>
+      </c>
+      <c r="I53" s="115">
+        <f t="shared" ref="I53" si="0">G53+Pintake_</f>
+        <v>116.11102366596876</v>
+      </c>
+      <c r="J53" s="115">
+        <f t="array" ref="J53:K53">[1]!ESP_dP_atm(C53,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>94.060313425267267</v>
+      </c>
+      <c r="K53" s="115">
         <v>0</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-    </row>
-    <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="54" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" s="51">
-        <v>2000</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="54" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18" s="51">
+      <c r="L53" s="115">
+        <f t="shared" ref="L53" si="1">Pdis-J53</f>
+        <v>55.939686574732733</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="54">
+        <f>B94+Qmax/20</f>
+        <v>11.5</v>
+      </c>
+      <c r="D54" s="102">
+        <f>[1]!ESP_head_m(C54,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>2155.0796090898484</v>
+      </c>
+      <c r="E54" s="114">
+        <f>[1]!ESP_eff_fr(C54,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>7.4948597208333356E-2</v>
+      </c>
+      <c r="F54" s="102">
+        <f>[1]!ESP_Power_W(C54,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>35543.191344898885</v>
+      </c>
+      <c r="G54" s="114">
+        <f t="array" ref="G54:H54">[1]!ESP_dP_atm(C54,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>90.209598158688067</v>
+      </c>
+      <c r="H54" s="114">
+        <v>86.608803564703976</v>
+      </c>
+      <c r="I54" s="115">
+        <f t="shared" ref="I54:I73" si="2">G54+Pintake_</f>
+        <v>124.20959815868807</v>
+      </c>
+      <c r="J54" s="115">
+        <f t="array" ref="J54:K54">[1]!ESP_dP_atm(C54,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>93.024931754175967</v>
+      </c>
+      <c r="K54" s="115">
         <v>0</v>
       </c>
-      <c r="D18" s="50" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="54" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19" s="51">
-        <v>1500</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20" s="51">
-        <v>125</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="C21" s="51">
-        <v>73</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="54" t="s">
-        <v>320</v>
-      </c>
-      <c r="C22" s="51">
-        <v>62</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="C23" s="51">
-        <v>100</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="C24" s="51">
-        <v>20</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" s="51">
-        <v>34</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="C26" s="51">
-        <v>80</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="C27" s="51">
-        <v>70</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="54" t="s">
-        <v>326</v>
-      </c>
-      <c r="C28" s="51">
-        <v>50</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="C29" s="51">
-        <v>150</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="C32" s="51">
-        <v>80</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="C33" s="51">
-        <v>2000</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="C34" s="51">
-        <v>50</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="50" t="s">
-        <v>331</v>
-      </c>
-      <c r="C35" s="58">
-        <f>[1]!ESP_IDbyRate(Q_ESP_)</f>
-        <v>1006</v>
-      </c>
-      <c r="D35" s="50"/>
-      <c r="G35" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="C36" s="58" t="str">
-        <f>[1]!ESP_name(C35)</f>
-        <v>ВНН5-80</v>
-      </c>
-      <c r="D36" s="50"/>
-      <c r="G36" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,mu,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>gamma_gas:0.900;gamma_oil:0.750;gamma_wat:1.000;rsb_m3m3:80.000;Rp_m3m3:80.000;Pb_atma:100.000;Tres_C:120.000;Bob_m3m3:1.200;Muob_cP:1.000;PVTcorr:0;Ksep_fr:0.900;PKsep_atma:80.000;TKsep_C:80.000;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="C37" s="58">
-        <f>[1]!esp_maxRate_m3day(Freq_,PumpID_)*1</f>
-        <v>175</v>
-      </c>
-      <c r="D37" s="50"/>
-    </row>
-    <row r="38" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="C38" s="58">
-        <f>INT(Head_ESP_/[1]!ESP_head_m(Q_ESP_,1,,PumpID_))</f>
-        <v>334</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="G38" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="C39" s="59">
-        <v>0.9</v>
-      </c>
-      <c r="D39" s="50"/>
-      <c r="G39" t="str">
-        <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
-        <v>ESP_ID:1006.00000;HeadNom_m:2000.00000;ESPfreq_Hz:50.00000;ESP_U_V:1000.00000;MotorPowerNom_kW:30.00000;Tint_C:85.00000;Tdis_C:85.00000;KsepGS_fr:0.00000;ESP_Power_fact_W:0.00000;ESP_cable_type:0;ESP_Hmes_m:0.00000;GasDegtType:0;Kdegr:0.00000;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="C40" s="65">
-        <v>80</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="C41" s="65">
-        <v>80</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="49" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="C44" s="51">
-        <v>250</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="C45" s="65">
-        <f>[1]!IPR_PI_sm3dayatm(Q_,Pwf_,Pres_,wc_,Pb_)</f>
-        <v>0.28409090909090906</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="C46" s="51">
-        <v>3</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="50" t="s">
-        <v>303</v>
-      </c>
-      <c r="C47" s="51">
-        <v>20</v>
-      </c>
-      <c r="D47" s="50"/>
-    </row>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>347</v>
-      </c>
-      <c r="C48" t="s">
-        <v>341</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>340</v>
-      </c>
-      <c r="C49" t="s">
-        <v>339</v>
-      </c>
-      <c r="D49" s="67" t="e">
-        <f>[1]!MF_GasFraction_d(Pintake_,Tintake_,wc_,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,,,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J49" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="G50" s="69" t="s">
-        <v>350</v>
-      </c>
-      <c r="H50" s="70"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="72" t="s">
-        <v>351</v>
-      </c>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-    </row>
-    <row r="51" spans="1:12" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>344</v>
-      </c>
-      <c r="G51" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="H51" s="62" t="s">
-        <v>346</v>
-      </c>
-      <c r="I51" s="62" t="s">
-        <v>352</v>
-      </c>
-      <c r="J51" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="K51" s="62" t="s">
-        <v>346</v>
-      </c>
-      <c r="L51" s="62" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="63">
-        <v>1</v>
-      </c>
-      <c r="D52" s="60">
-        <f>[1]!ESP_head_m(C52,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2202.8561602786194</v>
-      </c>
-      <c r="E52" s="61">
-        <f>[1]!ESP_eff_fr(C52,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>5.303653716400898E-3</v>
-      </c>
-      <c r="F52" s="60">
-        <f>[1]!ESP_Power_W(C52,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>29186.480609850001</v>
-      </c>
-      <c r="G52" s="61">
-        <f t="array" ref="G52:H52">[1]!ESP_dP_atm(C52,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>131.61505032571148</v>
-      </c>
-      <c r="H52" s="61">
+      <c r="L54" s="115">
+        <f t="shared" ref="L54:L73" si="3">Pdis-J54</f>
+        <v>56.975068245824033</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="54">
+        <f t="shared" ref="C55:C73" si="4">C54+Qmax/20</f>
+        <v>23</v>
+      </c>
+      <c r="D55" s="102">
+        <f>[1]!ESP_head_m(C55,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>2153.4436231720601</v>
+      </c>
+      <c r="E55" s="114">
+        <f>[1]!ESP_eff_fr(C55,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.14770494788119301</v>
+      </c>
+      <c r="F55" s="102">
+        <f>[1]!ESP_Power_W(C55,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>36837.222463369806</v>
+      </c>
+      <c r="G55" s="114">
+        <f t="array" ref="G55:H55">[1]!ESP_dP_atm(C55,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>91.863172349024111</v>
+      </c>
+      <c r="H55" s="114">
+        <v>41.362840724366251</v>
+      </c>
+      <c r="I55" s="115">
+        <f t="shared" si="2"/>
+        <v>125.86317234902411</v>
+      </c>
+      <c r="J55" s="115">
+        <f t="array" ref="J55:K55">[1]!ESP_dP_atm(C55,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>93.272847801426963</v>
+      </c>
+      <c r="K55" s="115">
         <v>0</v>
       </c>
-      <c r="I52" s="68">
-        <f t="shared" ref="I52" si="0">G52+Pintake_</f>
-        <v>165.61505032571148</v>
-      </c>
-      <c r="J52" s="68">
-        <f t="array" ref="J52:K52">[1]!ESP_dP_atm(C52,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>122.05930659092314</v>
-      </c>
-      <c r="K52" s="68">
+      <c r="L55" s="115">
+        <f t="shared" si="3"/>
+        <v>56.727152198573037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="54">
+        <f t="shared" si="4"/>
+        <v>34.5</v>
+      </c>
+      <c r="D56" s="102">
+        <f>[1]!ESP_head_m(C56,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>2164.5150132826443</v>
+      </c>
+      <c r="E56" s="114">
+        <f>[1]!ESP_eff_fr(C56,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.22007074560149578</v>
+      </c>
+      <c r="F56" s="102">
+        <f>[1]!ESP_Power_W(C56,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>38177.816369012093</v>
+      </c>
+      <c r="G56" s="114">
+        <f t="array" ref="G56:H56">[1]!ESP_dP_atm(C56,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>93.08188781322697</v>
+      </c>
+      <c r="H56" s="114">
+        <v>25.916218778480811</v>
+      </c>
+      <c r="I56" s="115">
+        <f t="shared" si="2"/>
+        <v>127.08188781322697</v>
+      </c>
+      <c r="J56" s="115">
+        <f t="array" ref="J56:K56">[1]!ESP_dP_atm(C56,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>94.017186398412619</v>
+      </c>
+      <c r="K56" s="115">
         <v>0</v>
       </c>
-      <c r="L52" s="68">
-        <f t="shared" ref="L52" si="1">Pdis-J52</f>
-        <v>27.940693409076857</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="63">
-        <f>B93+Qmax/20</f>
-        <v>8.75</v>
-      </c>
-      <c r="D53" s="60">
-        <f>[1]!ESP_head_m(C53,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2200.678864742461</v>
-      </c>
-      <c r="E53" s="61">
-        <f>[1]!ESP_eff_fr(C53,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>5.5445262217753762E-2</v>
-      </c>
-      <c r="F53" s="60">
-        <f>[1]!ESP_Power_W(C53,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>30005.249336288001</v>
-      </c>
-      <c r="G53" s="61">
-        <f t="array" ref="G53:H53">[1]!ESP_dP_atm(C53,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>131.88191176628351</v>
-      </c>
-      <c r="H53" s="61">
+      <c r="L56" s="115">
+        <f t="shared" si="3"/>
+        <v>55.982813601587381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="54">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="D57" s="102">
+        <f>[1]!ESP_head_m(C57,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>2178.2139599650986</v>
+      </c>
+      <c r="E57" s="114">
+        <f>[1]!ESP_eff_fr(C57,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.28974697934124621</v>
+      </c>
+      <c r="F57" s="102">
+        <f>[1]!ESP_Power_W(C57,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>39502.006083603352</v>
+      </c>
+      <c r="G57" s="114">
+        <f t="array" ref="G57:H57">[1]!ESP_dP_atm(C57,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>93.759685446962351</v>
+      </c>
+      <c r="H57" s="114">
+        <v>18.080325823964984</v>
+      </c>
+      <c r="I57" s="115">
+        <f t="shared" si="2"/>
+        <v>127.75968544696235</v>
+      </c>
+      <c r="J57" s="115">
+        <f t="array" ref="J57:K57">[1]!ESP_dP_atm(C57,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>94.471185025823644</v>
+      </c>
+      <c r="K57" s="115">
         <v>0</v>
       </c>
-      <c r="I53" s="68">
-        <f t="shared" ref="I53:I72" si="2">G53+Pintake_</f>
-        <v>165.88191176628351</v>
-      </c>
-      <c r="J53" s="68">
-        <f t="array" ref="J53:K53">[1]!ESP_dP_atm(C53,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>122.22646422951664</v>
-      </c>
-      <c r="K53" s="68">
+      <c r="L57" s="115">
+        <f t="shared" si="3"/>
+        <v>55.528814974176356</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="54">
+        <f t="shared" si="4"/>
+        <v>57.5</v>
+      </c>
+      <c r="D58" s="102">
+        <f>[1]!ESP_head_m(C58,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>2186.1582001833112</v>
+      </c>
+      <c r="E58" s="114">
+        <f>[1]!ESP_eff_fr(C58,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.35456296862333708</v>
+      </c>
+      <c r="F58" s="102">
+        <f>[1]!ESP_Power_W(C58,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>40780.061560281414</v>
+      </c>
+      <c r="G58" s="114">
+        <f t="array" ref="G58:H58">[1]!ESP_dP_atm(C58,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>93.429871597979144</v>
+      </c>
+      <c r="H58" s="114">
+        <v>13.394469090118889</v>
+      </c>
+      <c r="I58" s="115">
+        <f t="shared" si="2"/>
+        <v>127.42987159797914</v>
+      </c>
+      <c r="J58" s="115">
+        <f t="array" ref="J58:K58">[1]!ESP_dP_atm(C58,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>94.029561713514568</v>
+      </c>
+      <c r="K58" s="115">
         <v>0</v>
       </c>
-      <c r="L53" s="68">
-        <f t="shared" ref="L53:L72" si="3">Pdis-J53</f>
-        <v>27.773535770483363</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="63">
-        <f t="shared" ref="C54:C72" si="4">C53+Qmax/20</f>
-        <v>17.5</v>
-      </c>
-      <c r="D54" s="60">
-        <f>[1]!ESP_head_m(C54,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2213.5900319484658</v>
-      </c>
-      <c r="E54" s="61">
-        <f>[1]!ESP_eff_fr(C54,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.12659785209876859</v>
-      </c>
-      <c r="F54" s="60">
-        <f>[1]!ESP_Power_W(C54,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>30598.129507851332</v>
-      </c>
-      <c r="G54" s="61">
-        <f t="array" ref="G54:H54">[1]!ESP_dP_atm(C54,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>133.24738314376867</v>
-      </c>
-      <c r="H54" s="61">
+      <c r="L58" s="115">
+        <f t="shared" si="3"/>
+        <v>55.970438286485432</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="54">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="D59" s="102">
+        <f>[1]!ESP_head_m(C59,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>2181.5694293950837</v>
+      </c>
+      <c r="E59" s="114">
+        <f>[1]!ESP_eff_fr(C59,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.41250634910674744</v>
+      </c>
+      <c r="F59" s="102">
+        <f>[1]!ESP_Power_W(C59,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>42008.326331975681</v>
+      </c>
+      <c r="G59" s="114">
+        <f t="array" ref="G59:H59">[1]!ESP_dP_atm(C59,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>91.699925728005709</v>
+      </c>
+      <c r="H59" s="114">
+        <v>10.402810500656599</v>
+      </c>
+      <c r="I59" s="115">
+        <f t="shared" si="2"/>
+        <v>125.69992572800571</v>
+      </c>
+      <c r="J59" s="115">
+        <f t="array" ref="J59:K59">[1]!ESP_dP_atm(C59,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>92.255575235094383</v>
+      </c>
+      <c r="K59" s="115">
         <v>0</v>
       </c>
-      <c r="I54" s="68">
+      <c r="L59" s="115">
+        <f t="shared" si="3"/>
+        <v>57.744424764905617</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="54">
+        <f t="shared" si="4"/>
+        <v>80.5</v>
+      </c>
+      <c r="D60" s="102">
+        <f>[1]!ESP_head_m(C60,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>2159.1797036256626</v>
+      </c>
+      <c r="E60" s="114">
+        <f>[1]!ESP_eff_fr(C60,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.46175305817174056</v>
+      </c>
+      <c r="F60" s="102">
+        <f>[1]!ESP_Power_W(C60,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>43202.054159838532</v>
+      </c>
+      <c r="G60" s="114">
+        <f t="array" ref="G60:H60">[1]!ESP_dP_atm(C60,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>88.303566765918674</v>
+      </c>
+      <c r="H60" s="114">
+        <v>8.4973345097707238</v>
+      </c>
+      <c r="I60" s="115">
         <f t="shared" si="2"/>
-        <v>167.24738314376867</v>
-      </c>
-      <c r="J54" s="68">
-        <f t="array" ref="J54:K54">[1]!ESP_dP_atm(C54,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>122.61026810962278</v>
-      </c>
-      <c r="K54" s="68">
+        <v>122.30356676591867</v>
+      </c>
+      <c r="J60" s="115">
+        <f t="array" ref="J60:K60">[1]!ESP_dP_atm(C60,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>88.867664913004575</v>
+      </c>
+      <c r="K60" s="115">
         <v>0</v>
       </c>
-      <c r="L54" s="68">
+      <c r="L60" s="115">
         <f t="shared" si="3"/>
-        <v>27.38973189037722</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="63">
+        <v>61.132335086995425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="54">
         <f t="shared" si="4"/>
-        <v>26.25</v>
-      </c>
-      <c r="D55" s="60">
-        <f>[1]!ESP_head_m(C55,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2230.3003299294264</v>
-      </c>
-      <c r="E55" s="61">
-        <f>[1]!ESP_eff_fr(C55,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.20521204222564957</v>
-      </c>
-      <c r="F55" s="60">
-        <f>[1]!ESP_Power_W(C55,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>30966.595050208427</v>
-      </c>
-      <c r="G55" s="61">
-        <f t="array" ref="G55:H55">[1]!ESP_dP_atm(C55,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>133.21422879783415</v>
-      </c>
-      <c r="H55" s="61">
+        <v>92</v>
+      </c>
+      <c r="D61" s="102">
+        <f>[1]!ESP_head_m(C61,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>2115.1378415412596</v>
+      </c>
+      <c r="E61" s="114">
+        <f>[1]!ESP_eff_fr(C61,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.5006973205050621</v>
+      </c>
+      <c r="F61" s="102">
+        <f>[1]!ESP_Power_W(C61,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>44388.245681676708</v>
+      </c>
+      <c r="G61" s="114">
+        <f t="array" ref="G61:H61">[1]!ESP_dP_atm(C61,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>83.104077767217404</v>
+      </c>
+      <c r="H61" s="114">
+        <v>7.373405049065255</v>
+      </c>
+      <c r="I61" s="115">
+        <f t="shared" si="2"/>
+        <v>117.1040777672174</v>
+      </c>
+      <c r="J61" s="115">
+        <f t="array" ref="J61:K61">[1]!ESP_dP_atm(C61,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>83.725657596444506</v>
+      </c>
+      <c r="K61" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="68">
+      <c r="L61" s="115">
+        <f t="shared" si="3"/>
+        <v>66.274342403555494</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="54">
+        <f t="shared" si="4"/>
+        <v>103.5</v>
+      </c>
+      <c r="D62" s="102">
+        <f>[1]!ESP_head_m(C62,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>2046.9158265225844</v>
+      </c>
+      <c r="E62" s="114">
+        <f>[1]!ESP_eff_fr(C62,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.52798163368513795</v>
+      </c>
+      <c r="F62" s="102">
+        <f>[1]!ESP_Power_W(C62,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>45598.485060382707</v>
+      </c>
+      <c r="G62" s="114">
+        <f t="array" ref="G62:H62">[1]!ESP_dP_atm(C62,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>76.087392178376234</v>
+      </c>
+      <c r="H62" s="114">
+        <v>6.8477745024192416</v>
+      </c>
+      <c r="I62" s="115">
         <f t="shared" si="2"/>
-        <v>167.21422879783415</v>
-      </c>
-      <c r="J55" s="68">
-        <f t="array" ref="J55:K55">[1]!ESP_dP_atm(C55,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>122.03607955563321</v>
-      </c>
-      <c r="K55" s="68">
+        <v>110.08739217837623</v>
+      </c>
+      <c r="J62" s="115">
+        <f t="array" ref="J62:K62">[1]!ESP_dP_atm(C62,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>76.816828806748447</v>
+      </c>
+      <c r="K62" s="115">
         <v>0</v>
       </c>
-      <c r="L55" s="68">
+      <c r="L62" s="115">
         <f t="shared" si="3"/>
-        <v>27.963920444366792</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="63">
+        <v>73.183171193251553</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="54">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="D56" s="60">
-        <f>[1]!ESP_head_m(C56,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2240.6593631125197</v>
-      </c>
-      <c r="E56" s="61">
-        <f>[1]!ESP_eff_fr(C56,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.28450652434065044</v>
-      </c>
-      <c r="F56" s="60">
-        <f>[1]!ESP_Power_W(C56,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>31218.93906626866</v>
-      </c>
-      <c r="G56" s="61">
-        <f t="array" ref="G56:H56">[1]!ESP_dP_atm(C56,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>130.06596457919744</v>
-      </c>
-      <c r="H56" s="61">
+        <v>115</v>
+      </c>
+      <c r="D63" s="102">
+        <f>[1]!ESP_head_m(C63,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>1953.2152087383711</v>
+      </c>
+      <c r="E63" s="114">
+        <f>[1]!ESP_eff_fr(C63,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.54252675376727288</v>
+      </c>
+      <c r="F63" s="102">
+        <f>[1]!ESP_Power_W(C63,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>46861.776632366156</v>
+      </c>
+      <c r="G63" s="114">
+        <f t="array" ref="G63:H63">[1]!ESP_dP_atm(C63,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>67.35257923577845</v>
+      </c>
+      <c r="H63" s="114">
+        <v>6.7859313227369142</v>
+      </c>
+      <c r="I63" s="115">
+        <f t="shared" si="2"/>
+        <v>101.35257923577845</v>
+      </c>
+      <c r="J63" s="115">
+        <f t="array" ref="J63:K63">[1]!ESP_dP_atm(C63,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>68.242164232174943</v>
+      </c>
+      <c r="K63" s="115">
         <v>0</v>
       </c>
-      <c r="I56" s="68">
+      <c r="L63" s="115">
+        <f t="shared" si="3"/>
+        <v>81.757835767825057</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="54">
+        <f t="shared" si="4"/>
+        <v>126.5</v>
+      </c>
+      <c r="D64" s="102">
+        <f>[1]!ESP_head_m(C64,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>1833.8735072188988</v>
+      </c>
+      <c r="E64" s="114">
+        <f>[1]!ESP_eff_fr(C64,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.54356168086884704</v>
+      </c>
+      <c r="F64" s="102">
+        <f>[1]!ESP_Power_W(C64,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>48197.381555985216</v>
+      </c>
+      <c r="G64" s="114">
+        <f t="array" ref="G64:H64">[1]!ESP_dP_atm(C64,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>57.101562667070539</v>
+      </c>
+      <c r="H64" s="114">
+        <v>7.0692615711777478</v>
+      </c>
+      <c r="I64" s="115">
         <f t="shared" si="2"/>
-        <v>164.06596457919744</v>
-      </c>
-      <c r="J56" s="68">
-        <f t="array" ref="J56:K56">[1]!ESP_dP_atm(C56,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>120.24983343484112</v>
-      </c>
-      <c r="K56" s="68">
+        <v>91.101562667070539</v>
+      </c>
+      <c r="J64" s="115">
+        <f t="array" ref="J64:K64">[1]!ESP_dP_atm(C64,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>58.20297600982417</v>
+      </c>
+      <c r="K64" s="115">
         <v>0</v>
       </c>
-      <c r="L56" s="68">
+      <c r="L64" s="115">
         <f t="shared" si="3"/>
-        <v>29.750166565158878</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="63">
+        <v>91.79702399017583</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="54">
         <f t="shared" si="4"/>
-        <v>43.75</v>
-      </c>
-      <c r="D57" s="60">
-        <f>[1]!ESP_head_m(C57,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2237.154256103488</v>
-      </c>
-      <c r="E57" s="61">
-        <f>[1]!ESP_eff_fr(C57,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.35910709353717923</v>
-      </c>
-      <c r="F57" s="60">
-        <f>[1]!ESP_Power_W(C57,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>31440.978832840879</v>
-      </c>
-      <c r="G57" s="61">
-        <f t="array" ref="G57:H57">[1]!ESP_dP_atm(C57,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>122.01146946247624</v>
-      </c>
-      <c r="H57" s="61">
+        <v>138</v>
+      </c>
+      <c r="D65" s="102">
+        <f>[1]!ESP_head_m(C65,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>1689.7706119295246</v>
+      </c>
+      <c r="E65" s="114">
+        <f>[1]!ESP_eff_fr(C65,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.53065364475451593</v>
+      </c>
+      <c r="F65" s="102">
+        <f>[1]!ESP_Power_W(C65,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>49607.654459978017</v>
+      </c>
+      <c r="G65" s="114">
+        <f t="array" ref="G65:H65">[1]!ESP_dP_atm(C65,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>45.628424363784902</v>
+      </c>
+      <c r="H65" s="114">
+        <v>7.5787477206568354</v>
+      </c>
+      <c r="I65" s="115">
+        <f t="shared" si="2"/>
+        <v>79.628424363784902</v>
+      </c>
+      <c r="J65" s="115">
+        <f t="array" ref="J65:K65">[1]!ESP_dP_atm(C65,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>46.987815835288345</v>
+      </c>
+      <c r="K65" s="115">
         <v>0</v>
       </c>
-      <c r="I57" s="68">
+      <c r="L65" s="115">
+        <f t="shared" si="3"/>
+        <v>103.01218416471166</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="54">
+        <f t="shared" si="4"/>
+        <v>149.5</v>
+      </c>
+      <c r="D66" s="102">
+        <f>[1]!ESP_head_m(C66,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>1522.7351858442096</v>
+      </c>
+      <c r="E66" s="114">
+        <f>[1]!ESP_eff_fr(C66,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.50373809042140771</v>
+      </c>
+      <c r="F66" s="102">
+        <f>[1]!ESP_Power_W(C66,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>51070.880091893952</v>
+      </c>
+      <c r="G66" s="114">
+        <f t="array" ref="G66:H66">[1]!ESP_dP_atm(C66,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>33.308248326983176</v>
+      </c>
+      <c r="H66" s="114">
+        <v>8.1861873942541621</v>
+      </c>
+      <c r="I66" s="115">
         <f t="shared" si="2"/>
-        <v>156.01146946247624</v>
-      </c>
-      <c r="J57" s="68">
-        <f t="array" ref="J57:K57">[1]!ESP_dP_atm(C57,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>117.51235662932675</v>
-      </c>
-      <c r="K57" s="68">
+        <v>67.308248326983176</v>
+      </c>
+      <c r="J66" s="115">
+        <f t="array" ref="J66:K66">[1]!ESP_dP_atm(C66,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>34.959547492879068</v>
+      </c>
+      <c r="K66" s="115">
         <v>0</v>
       </c>
-      <c r="L57" s="68">
+      <c r="L66" s="115">
         <f t="shared" si="3"/>
-        <v>32.487643370673254</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="63">
+        <v>115.04045250712093</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="54">
         <f t="shared" si="4"/>
-        <v>52.5</v>
-      </c>
-      <c r="D58" s="60">
-        <f>[1]!ESP_head_m(C58,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2214.6101320880121</v>
-      </c>
-      <c r="E58" s="61">
-        <f>[1]!ESP_eff_fr(C58,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.42491196538021475</v>
-      </c>
-      <c r="F58" s="60">
-        <f>[1]!ESP_Power_W(C58,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>31698.295567677225</v>
-      </c>
-      <c r="G58" s="61">
-        <f t="array" ref="G58:H58">[1]!ESP_dP_atm(C58,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>105.83998261063005</v>
-      </c>
-      <c r="H58" s="61">
+        <v>161</v>
+      </c>
+      <c r="D67" s="102">
+        <f>[1]!ESP_head_m(C67,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>1335.4510670190416</v>
+      </c>
+      <c r="E67" s="114">
+        <f>[1]!ESP_eff_fr(C67,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.46314866368431995</v>
+      </c>
+      <c r="F67" s="102">
+        <f>[1]!ESP_Power_W(C67,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>52534.109966525131</v>
+      </c>
+      <c r="G67" s="114">
+        <f t="array" ref="G67:H67">[1]!ESP_dP_atm(C67,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>20.585508955331555</v>
+      </c>
+      <c r="H67" s="114">
+        <v>8.7488933667834345</v>
+      </c>
+      <c r="I67" s="115">
+        <f t="shared" si="2"/>
+        <v>54.585508955331555</v>
+      </c>
+      <c r="J67" s="115">
+        <f t="array" ref="J67:K67">[1]!ESP_dP_atm(C67,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>22.542469062450621</v>
+      </c>
+      <c r="K67" s="115">
         <v>0</v>
       </c>
-      <c r="I58" s="68">
+      <c r="L67" s="115">
+        <f t="shared" si="3"/>
+        <v>127.45753093754938</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="54">
+        <f t="shared" si="4"/>
+        <v>172.5</v>
+      </c>
+      <c r="D68" s="102">
+        <f>[1]!ESP_head_m(C68,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>1131.3636706657694</v>
+      </c>
+      <c r="E68" s="114">
+        <f>[1]!ESP_eff_fr(C68,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.4096471967609201</v>
+      </c>
+      <c r="F68" s="102">
+        <f>[1]!ESP_Power_W(C68,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>53905.999014337751</v>
+      </c>
+      <c r="G68" s="114">
+        <f t="array" ref="G68:H68">[1]!ESP_dP_atm(C68,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>7.9625033417743438</v>
+      </c>
+      <c r="H68" s="114">
+        <v>9.1054864809524645</v>
+      </c>
+      <c r="I68" s="115">
         <f t="shared" si="2"/>
-        <v>139.83998261063005</v>
-      </c>
-      <c r="J58" s="68">
-        <f t="array" ref="J58:K58">[1]!ESP_dP_atm(C58,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>114.11846620851452</v>
-      </c>
-      <c r="K58" s="68">
+        <v>41.962503341774344</v>
+      </c>
+      <c r="J68" s="115">
+        <f t="array" ref="J68:K68">[1]!ESP_dP_atm(C68,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>10.209429995035777</v>
+      </c>
+      <c r="K68" s="115">
         <v>0</v>
       </c>
-      <c r="L58" s="68">
+      <c r="L68" s="115">
         <f t="shared" si="3"/>
-        <v>35.881533791485481</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="63">
+        <v>139.79057000496422</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="54">
         <f t="shared" si="4"/>
-        <v>61.25</v>
-      </c>
-      <c r="D59" s="60">
-        <f>[1]!ESP_head_m(C59,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2169.8905912330774</v>
-      </c>
-      <c r="E59" s="61">
-        <f>[1]!ESP_eff_fr(C59,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.47895709302672562</v>
-      </c>
-      <c r="F59" s="60">
-        <f>[1]!ESP_Power_W(C59,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>32038.474196516945</v>
-      </c>
-      <c r="G59" s="61">
-        <f t="array" ref="G59:H59">[1]!ESP_dP_atm(C59,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>66.994498082872198</v>
-      </c>
-      <c r="H59" s="61">
+        <v>184</v>
+      </c>
+      <c r="D69" s="102">
+        <f>[1]!ESP_head_m(C69,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>914.58639122531849</v>
+      </c>
+      <c r="E69" s="114">
+        <f>[1]!ESP_eff_fr(C69,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.34445369385694047</v>
+      </c>
+      <c r="F69" s="102">
+        <f>[1]!ESP_Power_W(C69,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>55049.642229903497</v>
+      </c>
+      <c r="G69" s="114">
+        <f t="array" ref="G69:H69">[1]!ESP_dP_atm(C69,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="68">
-        <f t="shared" si="2"/>
-        <v>100.9944980828722</v>
-      </c>
-      <c r="J59" s="68">
-        <f t="array" ref="J59:K59">[1]!ESP_dP_atm(C59,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>110.25455618949185</v>
-      </c>
-      <c r="K59" s="68">
+      <c r="H69" s="114">
         <v>0</v>
       </c>
-      <c r="L59" s="68">
-        <f t="shared" si="3"/>
-        <v>39.745443810508149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="63">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="D60" s="60">
-        <f>[1]!ESP_head_m(C60,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2101.5981890883459</v>
-      </c>
-      <c r="E60" s="61">
-        <f>[1]!ESP_eff_fr(C60,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.51928148434608679</v>
-      </c>
-      <c r="F60" s="60">
-        <f>[1]!ESP_Power_W(C60,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>32493.343120130234</v>
-      </c>
-      <c r="G60" s="61">
-        <f t="array" ref="G60:H60">[1]!ESP_dP_atm(C60,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="61">
-        <v>0</v>
-      </c>
-      <c r="I60" s="68">
+      <c r="I69" s="115">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J60" s="68">
-        <f t="array" ref="J60:K60">[1]!ESP_dP_atm(C60,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>106.01038254180838</v>
-      </c>
-      <c r="K60" s="68">
+      <c r="J69" s="115">
+        <f t="array" ref="J69:K69">[1]!ESP_dP_atm(C69,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="68">
+      <c r="K69" s="115">
+        <v>0</v>
+      </c>
+      <c r="L69" s="115">
         <f t="shared" si="3"/>
-        <v>43.989617458191617</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="63">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="54">
         <f t="shared" si="4"/>
-        <v>78.75</v>
-      </c>
-      <c r="D61" s="60">
-        <f>[1]!ESP_head_m(C61,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>2009.7749149875228</v>
-      </c>
-      <c r="E61" s="61">
-        <f>[1]!ESP_eff_fr(C61,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.5447925190404973</v>
-      </c>
-      <c r="F61" s="60">
-        <f>[1]!ESP_Power_W(C61,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>33081.213981362023</v>
-      </c>
-      <c r="G61" s="61">
-        <f t="array" ref="G61:H61">[1]!ESP_dP_atm(C61,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
+        <v>195.5</v>
+      </c>
+      <c r="D70" s="102">
+        <f>[1]!ESP_head_m(C70,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>689.80700444132776</v>
+      </c>
+      <c r="E70" s="114">
+        <f>[1]!ESP_eff_fr(C70,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.26927631675138031</v>
+      </c>
+      <c r="F70" s="102">
+        <f>[1]!ESP_Power_W(C70,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>55775.411320330881</v>
+      </c>
+      <c r="G70" s="114">
+        <f t="array" ref="G70:H70">[1]!ESP_dP_atm(C70,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="61">
+      <c r="H70" s="114">
         <v>0</v>
       </c>
-      <c r="I61" s="68">
+      <c r="I70" s="115">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J61" s="68">
-        <f t="array" ref="J61:K61">[1]!ESP_dP_atm(C61,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>101.39430053834802</v>
-      </c>
-      <c r="K61" s="68">
+      <c r="J70" s="115">
+        <f t="array" ref="J70:K70">[1]!ESP_dP_atm(C70,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="L61" s="68">
+      <c r="K70" s="115">
+        <v>0</v>
+      </c>
+      <c r="L70" s="115">
         <f t="shared" si="3"/>
-        <v>48.60569946165198</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="63">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="54">
         <f t="shared" si="4"/>
-        <v>87.5</v>
-      </c>
-      <c r="D62" s="60">
-        <f>[1]!ESP_head_m(C62,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1895.6026704497281</v>
-      </c>
-      <c r="E62" s="61">
-        <f>[1]!ESP_eff_fr(C62,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.55513126576539795</v>
-      </c>
-      <c r="F62" s="60">
-        <f>[1]!ESP_Power_W(C62,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>33809.121432175823</v>
-      </c>
-      <c r="G62" s="61">
-        <f t="array" ref="G62:H62">[1]!ESP_dP_atm(C62,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
+        <v>207</v>
+      </c>
+      <c r="D71" s="102">
+        <f>[1]!ESP_head_m(C71,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>462.19406943367369</v>
+      </c>
+      <c r="E71" s="114">
+        <f>[1]!ESP_eff_fr(C71,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>0.18634137038169934</v>
+      </c>
+      <c r="F71" s="102">
+        <f>[1]!ESP_Power_W(C71,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>55833.791353696841</v>
+      </c>
+      <c r="G71" s="114">
+        <f t="array" ref="G71:H71">[1]!ESP_dP_atm(C71,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="61">
+      <c r="H71" s="114">
         <v>0</v>
       </c>
-      <c r="I62" s="68">
+      <c r="I71" s="115">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J62" s="68">
-        <f t="array" ref="J62:K62">[1]!ESP_dP_atm(C62,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>96.365620595006192</v>
-      </c>
-      <c r="K62" s="68">
+      <c r="J71" s="115">
+        <f t="array" ref="J71:K71">[1]!ESP_dP_atm(C71,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="L62" s="68">
+      <c r="K71" s="115">
+        <v>0</v>
+      </c>
+      <c r="L71" s="115">
         <f t="shared" si="3"/>
-        <v>53.634379404993808</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="63">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="54">
         <f t="shared" si="4"/>
-        <v>96.25</v>
-      </c>
-      <c r="D63" s="60">
-        <f>[1]!ESP_head_m(C63,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1761.1037475808644</v>
-      </c>
-      <c r="E63" s="61">
-        <f>[1]!ESP_eff_fr(C63,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.55053779924988877</v>
-      </c>
-      <c r="F63" s="60">
-        <f>[1]!ESP_Power_W(C63,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>34675.062900697507</v>
-      </c>
-      <c r="G63" s="61">
-        <f t="array" ref="G63:H63">[1]!ESP_dP_atm(C63,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
+        <v>218.5</v>
+      </c>
+      <c r="D72" s="102">
+        <f>[1]!ESP_head_m(C72,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>237.30333077199134</v>
+      </c>
+      <c r="E72" s="114">
+        <f>[1]!ESP_eff_fr(C72,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>9.8423288429019706E-2</v>
+      </c>
+      <c r="F72" s="102">
+        <f>[1]!ESP_Power_W(C72,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>54908.217407477758</v>
+      </c>
+      <c r="G72" s="114">
+        <f t="array" ref="G72:H72">[1]!ESP_dP_atm(C72,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="61">
+      <c r="H72" s="114">
         <v>0</v>
       </c>
-      <c r="I63" s="68">
+      <c r="I72" s="115">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J63" s="68">
-        <f t="array" ref="J63:K63">[1]!ESP_dP_atm(C63,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>90.710288850805568</v>
-      </c>
-      <c r="K63" s="68">
+      <c r="J72" s="115">
+        <f t="array" ref="J72:K72">[1]!ESP_dP_atm(C72,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="L63" s="68">
+      <c r="K72" s="115">
+        <v>0</v>
+      </c>
+      <c r="L72" s="115">
         <f t="shared" si="3"/>
-        <v>59.289711149194432</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="63">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="54">
         <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="D64" s="60">
-        <f>[1]!ESP_head_m(C64,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1608.841307474986</v>
-      </c>
-      <c r="E64" s="61">
-        <f>[1]!ESP_eff_fr(C64,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.53171651741714676</v>
-      </c>
-      <c r="F64" s="60">
-        <f>[1]!ESP_Power_W(C64,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>35670.238358259157</v>
-      </c>
-      <c r="G64" s="61">
-        <f t="array" ref="G64:H64">[1]!ESP_dP_atm(C64,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
+        <v>230</v>
+      </c>
+      <c r="D73" s="102">
+        <f>[1]!ESP_head_m(C73,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>20.984120549215934</v>
+      </c>
+      <c r="E73" s="114">
+        <f>[1]!ESP_eff_fr(C73,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>8.8746189033200862E-3</v>
+      </c>
+      <c r="F73" s="102">
+        <f>[1]!ESP_Power_W(C73,NumStage_,Freq_,PumpID_,mu)</f>
+        <v>52607.911216981076</v>
+      </c>
+      <c r="G73" s="114">
+        <f t="array" ref="G73:H73">[1]!ESP_dP_atm(C73,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H64" s="61">
+      <c r="H73" s="114">
         <v>0</v>
       </c>
-      <c r="I64" s="68">
+      <c r="I73" s="115">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J64" s="68">
-        <f t="array" ref="J64:K64">[1]!ESP_dP_atm(C64,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>83.979849276359928</v>
-      </c>
-      <c r="K64" s="68">
+      <c r="J73" s="115">
+        <f t="array" ref="J73:K73">[1]!ESP_dP_atm(C73,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="L64" s="68">
-        <f t="shared" si="3"/>
-        <v>66.020150723640072</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="63">
-        <f t="shared" si="4"/>
-        <v>113.75</v>
-      </c>
-      <c r="D65" s="60">
-        <f>[1]!ESP_head_m(C65,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1441.61985861567</v>
-      </c>
-      <c r="E65" s="61">
-        <f>[1]!ESP_eff_fr(C65,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.49970145850484476</v>
-      </c>
-      <c r="F65" s="60">
-        <f>[1]!ESP_Power_W(C65,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>36781.290086442867</v>
-      </c>
-      <c r="G65" s="61">
-        <f t="array" ref="G65:H65">[1]!ESP_dP_atm(C65,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
+      <c r="K73" s="115">
         <v>0</v>
       </c>
-      <c r="H65" s="61">
-        <v>0</v>
-      </c>
-      <c r="I65" s="68">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="J65" s="68">
-        <f t="array" ref="J65:K65">[1]!ESP_dP_atm(C65,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>74.816147726917009</v>
-      </c>
-      <c r="K65" s="68">
-        <v>0</v>
-      </c>
-      <c r="L65" s="68">
-        <f t="shared" si="3"/>
-        <v>75.183852273082991</v>
-      </c>
-    </row>
-    <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="63">
-        <f t="shared" si="4"/>
-        <v>122.5</v>
-      </c>
-      <c r="D66" s="60">
-        <f>[1]!ESP_head_m(C66,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1262.1857352773841</v>
-      </c>
-      <c r="E66" s="61">
-        <f>[1]!ESP_eff_fr(C66,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.45572161818556323</v>
-      </c>
-      <c r="F66" s="60">
-        <f>[1]!ESP_Power_W(C66,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>37992.542444124549</v>
-      </c>
-      <c r="G66" s="61">
-        <f t="array" ref="G66:H66">[1]!ESP_dP_atm(C66,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="61">
-        <v>0</v>
-      </c>
-      <c r="I66" s="68">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="J66" s="68">
-        <f t="array" ref="J66:K66">[1]!ESP_dP_atm(C66,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>60.328035756657371</v>
-      </c>
-      <c r="K66" s="68">
-        <v>0</v>
-      </c>
-      <c r="L66" s="68">
-        <f t="shared" si="3"/>
-        <v>89.671964243342629</v>
-      </c>
-    </row>
-    <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="63">
-        <f t="shared" si="4"/>
-        <v>131.25</v>
-      </c>
-      <c r="D67" s="60">
-        <f>[1]!ESP_head_m(C67,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>1072.9275759268546</v>
-      </c>
-      <c r="E67" s="61">
-        <f>[1]!ESP_eff_fr(C67,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.40106626668721712</v>
-      </c>
-      <c r="F67" s="60">
-        <f>[1]!ESP_Power_W(C67,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>39288.241634517763</v>
-      </c>
-      <c r="G67" s="61">
-        <f t="array" ref="G67:H67">[1]!ESP_dP_atm(C67,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="61">
-        <v>0</v>
-      </c>
-      <c r="I67" s="68">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="J67" s="68">
-        <f t="array" ref="J67:K67">[1]!ESP_dP_atm(C67,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>44.272644394695817</v>
-      </c>
-      <c r="K67" s="68">
-        <v>0</v>
-      </c>
-      <c r="L67" s="68">
-        <f t="shared" si="3"/>
-        <v>105.72735560530418</v>
-      </c>
-    </row>
-    <row r="68" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="63">
-        <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="D68" s="60">
-        <f>[1]!ESP_head_m(C68,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>875.57680162443944</v>
-      </c>
-      <c r="E68" s="61">
-        <f>[1]!ESP_eff_fr(C68,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.33695026591346711</v>
-      </c>
-      <c r="F68" s="60">
-        <f>[1]!ESP_Power_W(C68,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>40654.795472217564</v>
-      </c>
-      <c r="G68" s="61">
-        <f t="array" ref="G68:H68">[1]!ESP_dP_atm(C68,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="61">
-        <v>0</v>
-      </c>
-      <c r="I68" s="68">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="J68" s="68">
-        <f t="array" ref="J68:K68">[1]!ESP_dP_atm(C68,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>27.43288345364752</v>
-      </c>
-      <c r="K68" s="68">
-        <v>0</v>
-      </c>
-      <c r="L68" s="68">
-        <f t="shared" si="3"/>
-        <v>122.56711654635248</v>
-      </c>
-    </row>
-    <row r="69" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="63">
-        <f t="shared" si="4"/>
-        <v>148.75</v>
-      </c>
-      <c r="D69" s="60">
-        <f>[1]!ESP_head_m(C69,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>670.90809442548937</v>
-      </c>
-      <c r="E69" s="61">
-        <f>[1]!ESP_eff_fr(C69,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.26437938656413706</v>
-      </c>
-      <c r="F69" s="60">
-        <f>[1]!ESP_Power_W(C69,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>42083.013150244267</v>
-      </c>
-      <c r="G69" s="61">
-        <f t="array" ref="G69:H69">[1]!ESP_dP_atm(C69,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="61">
-        <v>0</v>
-      </c>
-      <c r="I69" s="68">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="J69" s="68">
-        <f t="array" ref="J69:K69">[1]!ESP_dP_atm(C69,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>9.5800735361187321</v>
-      </c>
-      <c r="K69" s="68">
-        <v>0</v>
-      </c>
-      <c r="L69" s="68">
-        <f t="shared" si="3"/>
-        <v>140.41992646388127</v>
-      </c>
-    </row>
-    <row r="70" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="63">
-        <f t="shared" si="4"/>
-        <v>157.5</v>
-      </c>
-      <c r="D70" s="60">
-        <f>[1]!ESP_head_m(C70,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>458.43987578173306</v>
-      </c>
-      <c r="E70" s="61">
-        <f>[1]!ESP_eff_fr(C70,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.18401562525563042</v>
-      </c>
-      <c r="F70" s="60">
-        <f>[1]!ESP_Power_W(C70,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>43570.345007087242</v>
-      </c>
-      <c r="G70" s="61">
-        <f t="array" ref="G70:H70">[1]!ESP_dP_atm(C70,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="61">
-        <v>0</v>
-      </c>
-      <c r="I70" s="68">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="J70" s="68">
-        <f t="array" ref="J70:K70">[1]!ESP_dP_atm(C70,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K70" s="68">
-        <v>0</v>
-      </c>
-      <c r="L70" s="68">
+      <c r="L73" s="115">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="63">
-        <f t="shared" si="4"/>
-        <v>166.25</v>
-      </c>
-      <c r="D71" s="60">
-        <f>[1]!ESP_head_m(C71,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>236.13478494262984</v>
-      </c>
-      <c r="E71" s="61">
-        <f>[1]!ESP_eff_fr(C71,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>9.6042521641360512E-2</v>
-      </c>
-      <c r="F71" s="60">
-        <f>[1]!ESP_Power_W(C71,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>45123.122293748886</v>
-      </c>
-      <c r="G71" s="61">
-        <f t="array" ref="G71:H71">[1]!ESP_dP_atm(C71,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="61">
-        <v>0</v>
-      </c>
-      <c r="I71" s="68">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="J71" s="68">
-        <f t="array" ref="J71:K71">[1]!ESP_dP_atm(C71,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K71" s="68">
-        <v>0</v>
-      </c>
-      <c r="L71" s="68">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="63">
-        <f t="shared" si="4"/>
-        <v>175</v>
-      </c>
-      <c r="D72" s="60">
-        <f>[1]!ESP_head_m(C72,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>0.10015735674276982</v>
-      </c>
-      <c r="E72" s="61">
-        <f>[1]!ESP_eff_fr(C72,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>3.0475532145413098E-5</v>
-      </c>
-      <c r="F72" s="60">
-        <f>[1]!ESP_Power_W(C72,NumStage_,Freq_,PumpID_,mu)</f>
-        <v>46758.79694078811</v>
-      </c>
-      <c r="G72" s="61">
-        <f t="array" ref="G72:H72">[1]!ESP_dP_atm(C72,wc_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_)</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="61">
-        <v>0</v>
-      </c>
-      <c r="I72" s="68">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="J72" s="68">
-        <f t="array" ref="J72:K72">[1]!ESP_dP_atm(C72,wc_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K72" s="68">
-        <v>0</v>
-      </c>
-      <c r="L72" s="68">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-    </row>
     <row r="74" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
     </row>
     <row r="75" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="66"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
     </row>
     <row r="76" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
     </row>
     <row r="77" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
     </row>
     <row r="78" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="66"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="57"/>
     </row>
     <row r="79" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-    </row>
-    <row r="80" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+    </row>
+    <row r="80" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+    </row>
     <row r="81" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="85" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="87" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="57"/>
-    </row>
-    <row r="90" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E90" s="52"/>
+    </row>
     <row r="91" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="5:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
@@ -12067,18 +12444,19 @@
     <row r="114" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="115" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="116" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="171" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K171" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K182" s="64"/>
+    <row r="117" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K172" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K183" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12122,29 +12500,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="V2" s="74" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="V2" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
     </row>
     <row r="3" spans="2:25" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
@@ -67881,15 +68259,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="82">
+      <c r="K1" s="89"/>
+      <c r="L1" s="93">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="83"/>
+      <c r="M1" s="94"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -67901,15 +68279,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80">
+      <c r="K2" s="91"/>
+      <c r="L2" s="66">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="81"/>
+      <c r="M2" s="92"/>
       <c r="T2" s="19" t="s">
         <v>20</v>
       </c>
@@ -67923,31 +68301,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="99"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="100">
+      <c r="B5" s="68">
         <v>1</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -67956,14 +68334,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="D8" s="106" t="s">
+      <c r="B8" s="75"/>
+      <c r="D8" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="107"/>
+      <c r="E8" s="75"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -68074,10 +68452,10 @@
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="77"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -68105,10 +68483,10 @@
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="109"/>
+      <c r="B23" s="77"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
@@ -68230,99 +68608,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="86" t="s">
+      <c r="B42" s="62"/>
+      <c r="C42" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="89" t="s">
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="90"/>
-      <c r="L42" s="75" t="s">
+      <c r="J42" s="84"/>
+      <c r="L42" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75" t="s">
+      <c r="M42" s="95"/>
+      <c r="N42" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75" t="s">
+      <c r="O42" s="95"/>
+      <c r="P42" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75" t="s">
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="75"/>
-      <c r="T42" s="75" t="s">
+      <c r="S42" s="95"/>
+      <c r="T42" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="75"/>
-      <c r="V42" s="75" t="s">
+      <c r="U42" s="95"/>
+      <c r="V42" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="75"/>
-      <c r="X42" s="75" t="s">
+      <c r="W42" s="95"/>
+      <c r="X42" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="75"/>
-      <c r="Z42" s="75" t="s">
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="75"/>
-      <c r="AB42" s="75" t="s">
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="75"/>
-      <c r="AD42" s="75" t="s">
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="75"/>
-      <c r="AF42" s="75" t="s">
+      <c r="AE42" s="95"/>
+      <c r="AF42" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="75"/>
-      <c r="AH42" s="75" t="s">
+      <c r="AG42" s="95"/>
+      <c r="AH42" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="75"/>
-      <c r="AJ42" s="75" t="s">
+      <c r="AI42" s="95"/>
+      <c r="AJ42" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="75"/>
-      <c r="AL42" s="75"/>
-      <c r="AM42" s="75"/>
-      <c r="AN42" s="75"/>
-      <c r="AO42" s="75"/>
-      <c r="AP42" s="75"/>
-      <c r="AQ42" s="75"/>
-      <c r="AR42" s="75"/>
-      <c r="AS42" s="75"/>
+      <c r="AK42" s="95"/>
+      <c r="AL42" s="95"/>
+      <c r="AM42" s="95"/>
+      <c r="AN42" s="95"/>
+      <c r="AO42" s="95"/>
+      <c r="AP42" s="95"/>
+      <c r="AQ42" s="95"/>
+      <c r="AR42" s="95"/>
+      <c r="AS42" s="95"/>
       <c r="AT42" s="21"/>
     </row>
     <row r="43" spans="1:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="93"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="93" t="s">
+      <c r="A43" s="63"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="93" t="s">
+      <c r="D43" s="64"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="94"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="92"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="86"/>
       <c r="L43" s="21" t="s">
         <v>15</v>
       </c>
@@ -68418,17 +68796,17 @@
       <c r="B44" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="85"/>
+      <c r="D44" s="79"/>
       <c r="E44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="84" t="s">
+      <c r="F44" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="85"/>
+      <c r="G44" s="79"/>
       <c r="H44" s="8" t="s">
         <v>65</v>
       </c>
@@ -70901,20 +71279,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AL42:AM42"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AP42:AQ42"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -70929,13 +71300,20 @@
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="Z42:AA42"/>
     <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AL42:AM42"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
